--- a/runs/run707/NotionalETEOutput707.xlsx
+++ b/runs/run707/NotionalETEOutput707.xlsx
@@ -52,7 +52,7 @@
     <t>Missile_ANGERMAX0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX0_457.MISSILE_ANGERMAX0_457</t>
+    <t>MISSILE_ANGERMAX0_199.MISSILE_ANGERMAX0_199</t>
   </si>
   <si>
     <t>MISSILE_ANGERMAX0</t>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1502.600722421749</v>
+        <v>-1483.939221968903</v>
       </c>
       <c r="J2">
-        <v>1977.156828471808</v>
+        <v>2064.463085207349</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1427.430105577397</v>
+        <v>-1494.247343885251</v>
       </c>
       <c r="J3">
-        <v>2040.221372697516</v>
+        <v>1871.857888507679</v>
       </c>
       <c r="K3">
-        <v>299.9192380237403</v>
+        <v>304.2042850422734</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1468.282404663769</v>
+        <v>-1424.736420886341</v>
       </c>
       <c r="J4">
-        <v>1895.602264996952</v>
+        <v>1853.643721292664</v>
       </c>
       <c r="K4">
-        <v>591.1583200650674</v>
+        <v>582.3686671962246</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1437.128128376529</v>
+        <v>-1438.07947456169</v>
       </c>
       <c r="J5">
-        <v>1888.602892572751</v>
+        <v>1923.626327811943</v>
       </c>
       <c r="K5">
-        <v>890.8790125014563</v>
+        <v>839.999526578937</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1373.630361122361</v>
+        <v>-1310.350559827161</v>
       </c>
       <c r="J6">
-        <v>1831.881954954007</v>
+        <v>1769.374683586048</v>
       </c>
       <c r="K6">
-        <v>1079.918662916222</v>
+        <v>1176.748082710172</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1318.144810522062</v>
+        <v>-1383.340960263169</v>
       </c>
       <c r="J7">
-        <v>1766.972971178932</v>
+        <v>1803.982957802378</v>
       </c>
       <c r="K7">
-        <v>1301.978347560943</v>
+        <v>1420.124894397582</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1357.208984779247</v>
+        <v>-1374.852318661244</v>
       </c>
       <c r="J8">
-        <v>1718.276224713296</v>
+        <v>1644.908415001175</v>
       </c>
       <c r="K8">
-        <v>1601.032914343954</v>
+        <v>1550.69513699731</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-95.48531948110998</v>
+        <v>-99.2494500722899</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1216.903197875348</v>
+        <v>-1274.056076381215</v>
       </c>
       <c r="J9">
-        <v>1712.438748840983</v>
+        <v>1599.085169320304</v>
       </c>
       <c r="K9">
-        <v>1754.586020795829</v>
+        <v>1812.524507068659</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>218.2366928572637</v>
+        <v>214.7513266890642</v>
       </c>
       <c r="G10">
-        <v>-82.36193521746455</v>
+        <v>-80.40293734949125</v>
       </c>
       <c r="H10">
-        <v>866.2859955551501</v>
+        <v>884.2815006830073</v>
       </c>
       <c r="I10">
-        <v>-1233.446235037012</v>
+        <v>-1277.519143464589</v>
       </c>
       <c r="J10">
-        <v>1610.784575890481</v>
+        <v>1679.714413443998</v>
       </c>
       <c r="K10">
-        <v>1930.912294129502</v>
+        <v>2028.408509777492</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.0528178321442</v>
+        <v>170.352451601611</v>
       </c>
       <c r="G11">
-        <v>-65.2233807816725</v>
+        <v>-68.8651921106476</v>
       </c>
       <c r="H11">
-        <v>1059.075690898891</v>
+        <v>1056.43901286442</v>
       </c>
       <c r="I11">
-        <v>-1188.487296319019</v>
+        <v>-1243.519586365663</v>
       </c>
       <c r="J11">
-        <v>1587.095944938328</v>
+        <v>1583.644394551228</v>
       </c>
       <c r="K11">
-        <v>2101.520607428673</v>
+        <v>2272.546657873122</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>134.7923826352</v>
+        <v>145.8721403460817</v>
       </c>
       <c r="G12">
-        <v>-50.61365103150211</v>
+        <v>-48.19235739999584</v>
       </c>
       <c r="H12">
-        <v>1146.438879207657</v>
+        <v>1221.082813155474</v>
       </c>
       <c r="I12">
-        <v>-1131.845817588454</v>
+        <v>-1123.6979844244</v>
       </c>
       <c r="J12">
-        <v>1472.672428555759</v>
+        <v>1584.246323127796</v>
       </c>
       <c r="K12">
-        <v>2348.36248044589</v>
+        <v>2466.99867540999</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>116.5659869232718</v>
+        <v>124.9310364461045</v>
       </c>
       <c r="G13">
-        <v>-32.98358201185245</v>
+        <v>-32.50182310816734</v>
       </c>
       <c r="H13">
-        <v>1268.956103548809</v>
+        <v>1242.321197279285</v>
       </c>
       <c r="I13">
-        <v>-1177.993643873093</v>
+        <v>-1161.030431949778</v>
       </c>
       <c r="J13">
-        <v>1433.215794128662</v>
+        <v>1475.915536894458</v>
       </c>
       <c r="K13">
-        <v>2586.101475674719</v>
+        <v>2458.743177496038</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.5462505472142</v>
+        <v>104.4439110447915</v>
       </c>
       <c r="G14">
-        <v>-17.45684358850553</v>
+        <v>-16.82337158608753</v>
       </c>
       <c r="H14">
-        <v>1327.992607086357</v>
+        <v>1283.231969493595</v>
       </c>
       <c r="I14">
-        <v>-1100.441538422592</v>
+        <v>-1045.925523658529</v>
       </c>
       <c r="J14">
-        <v>1353.058965094199</v>
+        <v>1376.867762615387</v>
       </c>
       <c r="K14">
-        <v>2551.720370652033</v>
+        <v>2695.46882847675</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.88793048402104</v>
+        <v>99.29044690672856</v>
       </c>
       <c r="G15">
-        <v>-0.9426708982270141</v>
+        <v>-0.9495918799224058</v>
       </c>
       <c r="H15">
-        <v>1314.171943515059</v>
+        <v>1339.921262202135</v>
       </c>
       <c r="I15">
-        <v>-1037.727425212437</v>
+        <v>-1029.03350392895</v>
       </c>
       <c r="J15">
-        <v>1418.304664011907</v>
+        <v>1310.314791526675</v>
       </c>
       <c r="K15">
-        <v>2710.394899942045</v>
+        <v>2837.044223830282</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.31984185079219</v>
+        <v>96.36929339135931</v>
       </c>
       <c r="G16">
-        <v>15.28056301856243</v>
+        <v>16.31923925398944</v>
       </c>
       <c r="H16">
-        <v>1453.385502669002</v>
+        <v>1396.367537822572</v>
       </c>
       <c r="I16">
-        <v>-994.9506089237716</v>
+        <v>-1059.631523458696</v>
       </c>
       <c r="J16">
-        <v>1300.751149202807</v>
+        <v>1264.806015813531</v>
       </c>
       <c r="K16">
-        <v>2909.80643279341</v>
+        <v>2758.412822073671</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.9721786187652</v>
+        <v>87.53598811435353</v>
       </c>
       <c r="G17">
-        <v>32.71360887363095</v>
+        <v>32.20824119952924</v>
       </c>
       <c r="H17">
-        <v>1532.760544937086</v>
+        <v>1521.290104239015</v>
       </c>
       <c r="I17">
-        <v>-999.5007124615632</v>
+        <v>-990.6295713714765</v>
       </c>
       <c r="J17">
-        <v>1258.523370904888</v>
+        <v>1252.347667513725</v>
       </c>
       <c r="K17">
-        <v>2831.626421667493</v>
+        <v>2885.226404486452</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>81.66768514084737</v>
+        <v>84.84074690392774</v>
       </c>
       <c r="G18">
-        <v>46.87718196747235</v>
+        <v>46.61231661247657</v>
       </c>
       <c r="H18">
-        <v>1553.396857486411</v>
+        <v>1570.357551403436</v>
       </c>
       <c r="I18">
-        <v>-947.3707719271287</v>
+        <v>-901.5629863774287</v>
       </c>
       <c r="J18">
-        <v>1195.647565170156</v>
+        <v>1237.179978337188</v>
       </c>
       <c r="K18">
-        <v>3077.912793187433</v>
+        <v>2959.983333646189</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>75.03572359623816</v>
+        <v>76.83217545840809</v>
       </c>
       <c r="G19">
-        <v>64.41679985212522</v>
+        <v>63.23175935272357</v>
       </c>
       <c r="H19">
-        <v>1517.608964920727</v>
+        <v>1476.446964281554</v>
       </c>
       <c r="I19">
-        <v>-845.8766219020717</v>
+        <v>-862.8676193100447</v>
       </c>
       <c r="J19">
-        <v>1186.539624591602</v>
+        <v>1121.732978896957</v>
       </c>
       <c r="K19">
-        <v>3035.119563289077</v>
+        <v>3016.9504536166</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>71.45669620162322</v>
+        <v>71.84665608559911</v>
       </c>
       <c r="G20">
-        <v>84.00106284674256</v>
+        <v>81.88049165615506</v>
       </c>
       <c r="H20">
-        <v>1608.527758510836</v>
+        <v>1605.76174577247</v>
       </c>
       <c r="I20">
-        <v>-827.6068738982542</v>
+        <v>-847.6384498985902</v>
       </c>
       <c r="J20">
-        <v>1110.741659458514</v>
+        <v>1146.744976247812</v>
       </c>
       <c r="K20">
-        <v>3156.465649349903</v>
+        <v>3259.859825257616</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>68.56532071896922</v>
+        <v>69.08530986768386</v>
       </c>
       <c r="G21">
-        <v>97.80102854370443</v>
+        <v>97.73182425112188</v>
       </c>
       <c r="H21">
-        <v>1563.576626546984</v>
+        <v>1559.139903812001</v>
       </c>
       <c r="I21">
-        <v>-788.1402604201274</v>
+        <v>-830.1135608761917</v>
       </c>
       <c r="J21">
-        <v>1073.679289096241</v>
+        <v>1116.371164985152</v>
       </c>
       <c r="K21">
-        <v>3203.081611864931</v>
+        <v>3296.587143500109</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.85687807905532</v>
+        <v>70.8041680116189</v>
       </c>
       <c r="G22">
-        <v>116.6143283335038</v>
+        <v>111.6950021479001</v>
       </c>
       <c r="H22">
-        <v>1658.850148604131</v>
+        <v>1539.763608480081</v>
       </c>
       <c r="I22">
-        <v>-740.2265819043381</v>
+        <v>-715.4318942254308</v>
       </c>
       <c r="J22">
-        <v>994.8892047121035</v>
+        <v>1068.64825381383</v>
       </c>
       <c r="K22">
-        <v>3261.826820342472</v>
+        <v>3112.723454390928</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>62.91190300215433</v>
+        <v>68.70176692268959</v>
       </c>
       <c r="G23">
-        <v>132.3665911102073</v>
+        <v>136.4043228779374</v>
       </c>
       <c r="H23">
-        <v>1701.204084214412</v>
+        <v>1557.056752588868</v>
       </c>
       <c r="I23">
-        <v>-691.4347515980882</v>
+        <v>-680.5646428073017</v>
       </c>
       <c r="J23">
-        <v>1016.883743149132</v>
+        <v>964.9745020288245</v>
       </c>
       <c r="K23">
-        <v>3142.763981569226</v>
+        <v>3088.740961828935</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>63.91347799536189</v>
+        <v>60.41151675570196</v>
       </c>
       <c r="G24">
-        <v>148.1228418888151</v>
+        <v>152.6349153985902</v>
       </c>
       <c r="H24">
-        <v>1638.930275290626</v>
+        <v>1735.381377557299</v>
       </c>
       <c r="I24">
-        <v>-618.3641601601089</v>
+        <v>-620.0413584368754</v>
       </c>
       <c r="J24">
-        <v>883.8059700577719</v>
+        <v>885.8216874676234</v>
       </c>
       <c r="K24">
-        <v>3059.123551932444</v>
+        <v>3236.029889831648</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.97753545902282</v>
+        <v>63.04407759692192</v>
       </c>
       <c r="G25">
-        <v>167.533155862598</v>
+        <v>157.0522548945647</v>
       </c>
       <c r="H25">
-        <v>1613.617374094786</v>
+        <v>1594.570991278268</v>
       </c>
       <c r="I25">
-        <v>-616.6658900489999</v>
+        <v>-589.8271929021535</v>
       </c>
       <c r="J25">
-        <v>919.1046219574234</v>
+        <v>855.9487966360734</v>
       </c>
       <c r="K25">
-        <v>3184.854808616747</v>
+        <v>3280.646010131344</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.31686824728703</v>
+        <v>60.65359771951765</v>
       </c>
       <c r="G26">
-        <v>177.9986058460244</v>
+        <v>188.2657211768358</v>
       </c>
       <c r="H26">
-        <v>1739.194910019082</v>
+        <v>1657.90732824098</v>
       </c>
       <c r="I26">
-        <v>-571.2582553123892</v>
+        <v>-558.4500141815228</v>
       </c>
       <c r="J26">
-        <v>797.1459249180197</v>
+        <v>841.0835751728875</v>
       </c>
       <c r="K26">
-        <v>3003.829118008102</v>
+        <v>3027.058320176774</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>60.42209960416083</v>
+        <v>60.75553852493778</v>
       </c>
       <c r="G27">
-        <v>205.1672825008304</v>
+        <v>195.054360255172</v>
       </c>
       <c r="H27">
-        <v>1749.601068158758</v>
+        <v>1792.463961076852</v>
       </c>
       <c r="I27">
-        <v>-490.5892414024627</v>
+        <v>-510.5029207292133</v>
       </c>
       <c r="J27">
-        <v>762.2666591312631</v>
+        <v>797.273151511146</v>
       </c>
       <c r="K27">
-        <v>3141.269342480881</v>
+        <v>3106.641941010354</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>55.71408961579025</v>
+        <v>58.92934950246852</v>
       </c>
       <c r="G28">
-        <v>207.2507822783855</v>
+        <v>212.7422467402967</v>
       </c>
       <c r="H28">
-        <v>1729.227052154351</v>
+        <v>1677.580194201016</v>
       </c>
       <c r="I28">
-        <v>-436.4563716675697</v>
+        <v>-441.7451171408875</v>
       </c>
       <c r="J28">
-        <v>733.0433859996526</v>
+        <v>699.8820688576359</v>
       </c>
       <c r="K28">
-        <v>3062.449902557229</v>
+        <v>2870.521401210578</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>52.55059379384405</v>
+        <v>53.59627993193173</v>
       </c>
       <c r="G29">
-        <v>220.161803359607</v>
+        <v>229.2823779252755</v>
       </c>
       <c r="H29">
-        <v>1779.23685959628</v>
+        <v>1736.698205266413</v>
       </c>
       <c r="I29">
-        <v>-365.2025246887061</v>
+        <v>-399.5595673568323</v>
       </c>
       <c r="J29">
-        <v>653.3182796533578</v>
+        <v>682.4964657027123</v>
       </c>
       <c r="K29">
-        <v>2849.969902178544</v>
+        <v>2741.382813785734</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>56.15007301389008</v>
+        <v>56.04560198605711</v>
       </c>
       <c r="G30">
-        <v>254.3482357362178</v>
+        <v>253.4240068078572</v>
       </c>
       <c r="H30">
-        <v>1694.543698562989</v>
+        <v>1692.122902351696</v>
       </c>
       <c r="I30">
-        <v>-334.4304337968333</v>
+        <v>-316.8282043871394</v>
       </c>
       <c r="J30">
-        <v>645.9235483425265</v>
+        <v>646.9219700192389</v>
       </c>
       <c r="K30">
-        <v>2690.571788627145</v>
+        <v>2862.102378022554</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.81445748555502</v>
+        <v>52.03807679086231</v>
       </c>
       <c r="G31">
-        <v>253.7970763925056</v>
+        <v>270.5935794803221</v>
       </c>
       <c r="H31">
-        <v>1729.961596493699</v>
+        <v>1805.211285047667</v>
       </c>
       <c r="I31">
-        <v>-279.6014757678107</v>
+        <v>-275.5375788351781</v>
       </c>
       <c r="J31">
-        <v>581.9791230443117</v>
+        <v>581.445091141788</v>
       </c>
       <c r="K31">
-        <v>2577.815295786781</v>
+        <v>2638.2679744201</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.59054254203802</v>
+        <v>53.396859262725</v>
       </c>
       <c r="G32">
-        <v>275.4243218005021</v>
+        <v>284.5167131702868</v>
       </c>
       <c r="H32">
-        <v>1815.919470338635</v>
+        <v>1722.5948939559</v>
       </c>
       <c r="I32">
-        <v>-213.7259958539616</v>
+        <v>-207.8620813066185</v>
       </c>
       <c r="J32">
-        <v>559.2642253906605</v>
+        <v>547.3637983180892</v>
       </c>
       <c r="K32">
-        <v>2450.134725136791</v>
+        <v>2645.382874066809</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>48.36752065119135</v>
+        <v>50.69856150424594</v>
       </c>
       <c r="G33">
-        <v>306.5477336314386</v>
+        <v>285.2363972643416</v>
       </c>
       <c r="H33">
-        <v>1861.947982703753</v>
+        <v>1802.721755668845</v>
       </c>
       <c r="I33">
-        <v>-153.2926896238222</v>
+        <v>-152.3574629481613</v>
       </c>
       <c r="J33">
-        <v>498.1655459343077</v>
+        <v>488.9453972260594</v>
       </c>
       <c r="K33">
-        <v>2343.84770945126</v>
+        <v>2392.598107572398</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>49.69685360173192</v>
+        <v>51.53309179997983</v>
       </c>
       <c r="G34">
-        <v>320.5272902910345</v>
+        <v>317.6581057504289</v>
       </c>
       <c r="H34">
-        <v>1840.976591437171</v>
+        <v>1805.735348880866</v>
       </c>
       <c r="I34">
-        <v>-82.71388273899483</v>
+        <v>-86.61316587631202</v>
       </c>
       <c r="J34">
-        <v>462.8494602881374</v>
+        <v>421.0622270544977</v>
       </c>
       <c r="K34">
-        <v>2216.560411374473</v>
+        <v>2126.40699294139</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.51969931246784</v>
+        <v>47.21011983697864</v>
       </c>
       <c r="G35">
-        <v>339.2212774316159</v>
+        <v>337.8888600624833</v>
       </c>
       <c r="H35">
-        <v>1879.637321495202</v>
+        <v>1883.00110209348</v>
       </c>
       <c r="I35">
-        <v>-19.03282493097981</v>
+        <v>-18.88483083312945</v>
       </c>
       <c r="J35">
-        <v>398.1213264394401</v>
+        <v>377.4184019440065</v>
       </c>
       <c r="K35">
-        <v>2111.198292714671</v>
+        <v>1951.578057208837</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>45.09861970071681</v>
+        <v>47.00267298960368</v>
       </c>
       <c r="G36">
-        <v>329.6374485973383</v>
+        <v>330.1732902421045</v>
       </c>
       <c r="H36">
-        <v>1865.32124200626</v>
+        <v>1856.864052118747</v>
       </c>
       <c r="I36">
-        <v>47.88894002943895</v>
+        <v>47.85672404269008</v>
       </c>
       <c r="J36">
-        <v>346.8389991619312</v>
+        <v>336.1123487891775</v>
       </c>
       <c r="K36">
-        <v>1860.527594102249</v>
+        <v>1911.203566687579</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.13540324676389</v>
+        <v>48.4604179702791</v>
       </c>
       <c r="G37">
-        <v>369.1503899093366</v>
+        <v>345.5006529166542</v>
       </c>
       <c r="H37">
-        <v>1834.363677322035</v>
+        <v>1812.645588864526</v>
       </c>
       <c r="I37">
-        <v>120.438017261521</v>
+        <v>119.6634503867774</v>
       </c>
       <c r="J37">
-        <v>297.0506138387953</v>
+        <v>289.0717769904851</v>
       </c>
       <c r="K37">
-        <v>1696.772323664343</v>
+        <v>1538.668250426467</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>43.88597446691619</v>
+        <v>44.74103485724341</v>
       </c>
       <c r="G38">
-        <v>391.6525882488262</v>
+        <v>394.5470204202518</v>
       </c>
       <c r="H38">
-        <v>1938.07213379732</v>
+        <v>1936.587732763054</v>
       </c>
       <c r="I38">
-        <v>180.6550088408503</v>
+        <v>186.4360017677393</v>
       </c>
       <c r="J38">
-        <v>243.4238900476468</v>
+        <v>245.0752132975703</v>
       </c>
       <c r="K38">
-        <v>1361.554148877062</v>
+        <v>1390.029748113467</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>45.29803106301465</v>
+        <v>43.41304476121616</v>
       </c>
       <c r="G39">
-        <v>404.405942441998</v>
+        <v>403.8705444164927</v>
       </c>
       <c r="H39">
-        <v>1929.155128787661</v>
+        <v>1787.175430866055</v>
       </c>
       <c r="I39">
-        <v>262.5243438476609</v>
+        <v>256.6015874360821</v>
       </c>
       <c r="J39">
-        <v>189.9592255491612</v>
+        <v>205.0013453569597</v>
       </c>
       <c r="K39">
-        <v>1184.958159030902</v>
+        <v>1147.744775832751</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>45.36101804143609</v>
+        <v>42.24371507691292</v>
       </c>
       <c r="G40">
-        <v>416.4852870683283</v>
+        <v>427.9238046587641</v>
       </c>
       <c r="H40">
-        <v>1839.131611518852</v>
+        <v>1811.785645022479</v>
       </c>
       <c r="I40">
-        <v>313.263924342496</v>
+        <v>326.5789878668534</v>
       </c>
       <c r="J40">
-        <v>148.4247377555047</v>
+        <v>155.2457339049228</v>
       </c>
       <c r="K40">
-        <v>933.3995870867101</v>
+        <v>898.658202973014</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>45.47008952730607</v>
+        <v>43.66024419744236</v>
       </c>
       <c r="G41">
-        <v>414.9366028190702</v>
+        <v>431.5023794910326</v>
       </c>
       <c r="H41">
-        <v>1849.604021238377</v>
+        <v>1871.131033668866</v>
       </c>
       <c r="I41">
-        <v>422.9436473400615</v>
+        <v>407.8153967550169</v>
       </c>
       <c r="J41">
-        <v>103.2906282042397</v>
+        <v>98.37755969252574</v>
       </c>
       <c r="K41">
-        <v>643.5446126732434</v>
+        <v>607.1920211253904</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>43.72308017762619</v>
+        <v>43.44217286161141</v>
       </c>
       <c r="G42">
-        <v>459.862653946216</v>
+        <v>452.626058278374</v>
       </c>
       <c r="H42">
-        <v>1860.082539036295</v>
+        <v>1844.538257403315</v>
       </c>
       <c r="I42">
-        <v>484.1689345337288</v>
+        <v>488.0077898734665</v>
       </c>
       <c r="J42">
-        <v>55.67465103584455</v>
+        <v>54.34033544248046</v>
       </c>
       <c r="K42">
-        <v>342.6563819315486</v>
+        <v>343.8512739637774</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>42.69529843435403</v>
+        <v>43.06834218935602</v>
       </c>
       <c r="G43">
-        <v>483.2487773268458</v>
+        <v>471.4077851092468</v>
       </c>
       <c r="H43">
-        <v>1953.949691873693</v>
+        <v>1958.907652206108</v>
       </c>
       <c r="I43">
-        <v>535.2846158632506</v>
+        <v>569.7168384523533</v>
       </c>
       <c r="J43">
-        <v>5.479329522945957</v>
+        <v>5.529384868496224</v>
       </c>
       <c r="K43">
-        <v>34.63070633033114</v>
+        <v>35.23624034186766</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>41.44901121610452</v>
+        <v>40.21729899654071</v>
       </c>
       <c r="G44">
-        <v>456.468538241187</v>
+        <v>493.162318322532</v>
       </c>
       <c r="H44">
-        <v>1958.713849270971</v>
+        <v>1985.371571251215</v>
       </c>
       <c r="I44">
-        <v>622.1769176099325</v>
+        <v>623.6608027232086</v>
       </c>
       <c r="J44">
-        <v>-41.28466134746392</v>
+        <v>-42.69561180179068</v>
       </c>
       <c r="K44">
-        <v>-275.6683394049327</v>
+        <v>-294.2178857102256</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>42.03722251651124</v>
+        <v>39.13313499866931</v>
       </c>
       <c r="G45">
-        <v>502.9785358002756</v>
+        <v>489.4678581490981</v>
       </c>
       <c r="H45">
-        <v>1933.543344445505</v>
+        <v>1979.326277069827</v>
       </c>
       <c r="I45">
-        <v>728.7091266138569</v>
+        <v>749.8520502607993</v>
       </c>
       <c r="J45">
-        <v>-91.42515625194473</v>
+        <v>-87.45063028579247</v>
       </c>
       <c r="K45">
-        <v>-644.8949041389693</v>
+        <v>-599.059139130583</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>41.0909155054765</v>
+        <v>41.77636848434317</v>
       </c>
       <c r="G46">
-        <v>505.4547961216545</v>
+        <v>507.7840663945601</v>
       </c>
       <c r="H46">
-        <v>1932.162615713759</v>
+        <v>1829.791397595536</v>
       </c>
       <c r="I46">
-        <v>810.272314979436</v>
+        <v>784.3886515452629</v>
       </c>
       <c r="J46">
-        <v>-139.4980375813068</v>
+        <v>-146.2685196677745</v>
       </c>
       <c r="K46">
-        <v>-990.5237910292732</v>
+        <v>-992.1490352562408</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.2249866413842</v>
+        <v>38.81014479585764</v>
       </c>
       <c r="G47">
-        <v>547.0585452343662</v>
+        <v>502.4686046005367</v>
       </c>
       <c r="H47">
-        <v>1879.979027751865</v>
+        <v>1865.113365749546</v>
       </c>
       <c r="I47">
-        <v>901.879793706656</v>
+        <v>899.2993110575535</v>
       </c>
       <c r="J47">
-        <v>-181.3445843929121</v>
+        <v>-190.6312090858815</v>
       </c>
       <c r="K47">
-        <v>-1343.629381805764</v>
+        <v>-1263.681516159341</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.84404373525658</v>
+        <v>40.53169490389588</v>
       </c>
       <c r="G48">
-        <v>540.9609309415677</v>
+        <v>525.9774548293822</v>
       </c>
       <c r="H48">
-        <v>1962.536652386418</v>
+        <v>2019.391029771378</v>
       </c>
       <c r="I48">
-        <v>1001.665889497476</v>
+        <v>933.1062809727016</v>
       </c>
       <c r="J48">
-        <v>-241.4901004613615</v>
+        <v>-236.3952651448041</v>
       </c>
       <c r="K48">
-        <v>-1640.452390898835</v>
+        <v>-1685.476519290418</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>36.9628959220833</v>
+        <v>38.1535677583097</v>
       </c>
       <c r="G49">
-        <v>579.0434290924159</v>
+        <v>545.5463517345934</v>
       </c>
       <c r="H49">
-        <v>1889.662675703745</v>
+        <v>1885.693537053351</v>
       </c>
       <c r="I49">
-        <v>1049.990441785721</v>
+        <v>1076.21286531435</v>
       </c>
       <c r="J49">
-        <v>-273.0719735419837</v>
+        <v>-293.4462552121807</v>
       </c>
       <c r="K49">
-        <v>-2076.101553153569</v>
+        <v>-2125.702699922238</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>36.66651567696321</v>
+        <v>39.68607198297948</v>
       </c>
       <c r="G50">
-        <v>562.8896405349751</v>
+        <v>562.5783811903489</v>
       </c>
       <c r="H50">
-        <v>1865.151336878678</v>
+        <v>1888.732043911956</v>
       </c>
       <c r="I50">
-        <v>1157.475687781842</v>
+        <v>1188.044452571648</v>
       </c>
       <c r="J50">
-        <v>-320.7173121971313</v>
+        <v>-337.6314390413885</v>
       </c>
       <c r="K50">
-        <v>-2537.775262866026</v>
+        <v>-2548.019674140414</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.04149635003048</v>
+        <v>39.31014983198332</v>
       </c>
       <c r="G51">
-        <v>620.6911195276297</v>
+        <v>595.1826563107326</v>
       </c>
       <c r="H51">
-        <v>1955.308279033097</v>
+        <v>2011.993021949409</v>
       </c>
       <c r="I51">
-        <v>1289.466901942198</v>
+        <v>1204.491360262095</v>
       </c>
       <c r="J51">
-        <v>-372.7780100588158</v>
+        <v>-378.9693358535218</v>
       </c>
       <c r="K51">
-        <v>-2923.398739011661</v>
+        <v>-2898.164775337661</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>39.28606502791392</v>
+        <v>37.36297322348996</v>
       </c>
       <c r="G52">
-        <v>634.0282894817034</v>
+        <v>591.070212762184</v>
       </c>
       <c r="H52">
-        <v>1953.478428059316</v>
+        <v>1942.288555228802</v>
       </c>
       <c r="I52">
-        <v>1397.195493413669</v>
+        <v>1376.7002712609</v>
       </c>
       <c r="J52">
-        <v>-429.6450793322417</v>
+        <v>-417.7066695377899</v>
       </c>
       <c r="K52">
-        <v>-3227.423713206727</v>
+        <v>-3389.563125156297</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.60013676692864</v>
+        <v>35.78652572443149</v>
       </c>
       <c r="G53">
-        <v>645.82349161523</v>
+        <v>624.8958453947868</v>
       </c>
       <c r="H53">
-        <v>2066.570502455437</v>
+        <v>1910.585934731162</v>
       </c>
       <c r="I53">
-        <v>1474.077537794963</v>
+        <v>1517.324966747179</v>
       </c>
       <c r="J53">
-        <v>-471.6234295393805</v>
+        <v>-493.994756730678</v>
       </c>
       <c r="K53">
-        <v>-3792.675844513936</v>
+        <v>-3921.269725228427</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.05314911990866</v>
+        <v>36.47415316662606</v>
       </c>
       <c r="G54">
-        <v>666.6227650043552</v>
+        <v>674.4701846880222</v>
       </c>
       <c r="H54">
-        <v>2050.951277339835</v>
+        <v>1948.771242862808</v>
       </c>
       <c r="I54">
-        <v>1596.848961307723</v>
+        <v>1590.803048349152</v>
       </c>
       <c r="J54">
-        <v>-549.3685633048746</v>
+        <v>-539.3997351147352</v>
       </c>
       <c r="K54">
-        <v>-4391.935266217843</v>
+        <v>-4247.157845720408</v>
       </c>
     </row>
   </sheetData>
